--- a/Harmonogram.xlsx
+++ b/Harmonogram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Przemek\Desktop\studia\s4\Project-IO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB8C6D8-47FD-4D6D-9B06-9FF4DD7B14AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1235EAD-DB29-4607-BFB4-480D26C7D219}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8C497318-FFDC-4B0D-B514-911668F66A9C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>lp</t>
   </si>
@@ -42,9 +42,6 @@
     <t>data rozpoczęcia</t>
   </si>
   <si>
-    <t>czas</t>
-  </si>
-  <si>
     <t>Przygotowanie struktury bazy danych</t>
   </si>
   <si>
@@ -73,6 +70,21 @@
   </si>
   <si>
     <t>Konfiguracja serwera</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>Beta testy</t>
+  </si>
+  <si>
+    <t>testy na użytkownikach końcowych</t>
+  </si>
+  <si>
+    <t>Przygotowanie domyślnej konfiguracji</t>
+  </si>
+  <si>
+    <t>wprowadzenie poprawek</t>
   </si>
 </sst>
 </file>
@@ -97,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -196,13 +208,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -215,13 +255,30 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -231,9 +288,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -246,9 +301,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -261,70 +314,53 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -333,26 +369,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -667,225 +712,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655F03CC-64C9-4DDC-8CE4-73398D3A174F}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
     <col min="3" max="3" width="3.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="C1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="15">
-        <v>7</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16">
-        <f ca="1">DATE(YEAR(H3),MONTH(H3),DAY(H3))</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="26">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15">
+        <f ca="1">DATE(YEAR(F3),MONTH(F3),DAY(F3))</f>
         <v>43966</v>
       </c>
-      <c r="G2" s="22">
-        <f ca="1">DATE(YEAR(F2)+E2,MONTH(F2)+D2,DAY(F2)+C2)</f>
-        <v>43973</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="27">
+        <f ca="1">DATE(YEAR(D2),MONTH(D2),DAY(D2)+C9)</f>
+        <v>43972</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4">
-        <f ca="1">DATE(YEAR(G2),MONTH(G2),DAY(G2))</f>
-        <v>43973</v>
-      </c>
-      <c r="G3" s="23">
-        <f ca="1">DATE(YEAR(F3)+E3,MONTH(F3)+D3,DAY(F3)+C3)</f>
-        <v>43975</v>
-      </c>
-      <c r="H3" s="25">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
+        <f ca="1">DATE(YEAR(E2),MONTH(E2),DAY(E2))</f>
+        <v>43972</v>
+      </c>
+      <c r="E3" s="7">
+        <f ca="1">DATE(YEAR(D3),MONTH(D3),DAY(D3)+C2)</f>
+        <v>43974</v>
+      </c>
+      <c r="F3" s="12">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY()),DAY(TODAY())+1)</f>
         <v>43966</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4">
-        <f t="shared" ref="F4:F9" ca="1" si="0">DATE(YEAR(G3),MONTH(G3),DAY(G3))</f>
-        <v>43975</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:G9" ca="1" si="1">DATE(YEAR(F4)+E4,MONTH(F4)+D4,DAY(F4)+C4)</f>
-        <v>43989</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D13" ca="1" si="0">DATE(YEAR(E3),MONTH(E3),DAY(E3))</f>
+        <v>43974</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E13" ca="1" si="1">DATE(YEAR(D4),MONTH(D4),DAY(D4)+C4)</f>
+        <v>43976</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43989</v>
-      </c>
-      <c r="G5" s="7">
+        <v>43976</v>
+      </c>
+      <c r="E5" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>43991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4">
+      <c r="C6" s="5">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43991</v>
-      </c>
-      <c r="G6" s="7">
+        <v>44004</v>
+      </c>
+      <c r="E6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4">
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44021</v>
-      </c>
-      <c r="G7" s="7">
+        <v>44032</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="30">
+        <v>10</v>
+      </c>
+      <c r="D8" s="31">
+        <f t="shared" ca="1" si="0"/>
+        <v>44042</v>
+      </c>
+      <c r="E8" s="32">
         <f t="shared" ca="1" si="1"/>
         <v>44052</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>1</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="34">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15">
         <f t="shared" ca="1" si="0"/>
         <v>44052</v>
       </c>
-      <c r="G8" s="7">
+      <c r="E9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>44062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10">
-        <v>10</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="11">
+        <v>44058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="17">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44062</v>
-      </c>
-      <c r="G9" s="12">
+        <v>44058</v>
+      </c>
+      <c r="E10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>44072</v>
+        <v>44064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>3</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="17">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44064</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>44071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>4</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>44071</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>5</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>44078</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>44085</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
